--- a/medicine/Psychotrope/Muscardin_(cépage)/Muscardin_(cépage).xlsx
+++ b/medicine/Psychotrope/Muscardin_(cépage)/Muscardin_(cépage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscardin_(c%C3%A9page)</t>
+          <t>Muscardin_(cépage)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le muscardin est un cépage noir de cuve. Probablement originaire de Vaucluse, il a des ressemblances avec la mondeuse noire.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscardin_(c%C3%A9page)</t>
+          <t>Muscardin_(cépage)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Ampélographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Grappes de taille moyenne et de forme cylindrique et compacte. Les baies sont de forme ovoïde, noires-bleutées. N'est jamais vinifié seul mais est souvent associé au grenache, au syrah ou encore au mourvèdre.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscardin_(c%C3%A9page)</t>
+          <t>Muscardin_(cépage)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Assemblage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Originaire du département de Vaucluse, il est toujours vinifié en assemblage avec d'autres cépages. Il apporte au vin floralité et fraîcheur. Ce cépage est utilisé par exemple dans le châteauneuf-du-pape, le gigondas, le vacqueyras et autres côtes-du-rhône[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originaire du département de Vaucluse, il est toujours vinifié en assemblage avec d'autres cépages. Il apporte au vin floralité et fraîcheur. Ce cépage est utilisé par exemple dans le châteauneuf-du-pape, le gigondas, le vacqueyras et autres côtes-du-rhône.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscardin_(c%C3%A9page)</t>
+          <t>Muscardin_(cépage)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscardin est aussi connu sous les noms de « muscadin » et « muscardin noir »[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscardin est aussi connu sous les noms de « muscadin » et « muscardin noir ».
 </t>
         </is>
       </c>
